--- a/bank statement generator/bank_statements/statement_76.xlsx
+++ b/bank statement generator/bank_statements/statement_76.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 30.03.2025</t>
+          <t>KONTOSTAND AM 21.07.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,66 +759,66 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>01.04.</t>
+          <t>23.07.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>02.04.</t>
+          <t>24.07.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>MCDONALDS Rastatt</t>
+          <t>BURGER KING Illertissen</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>25,71-</t>
+          <t>26,62-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>02.04.</t>
+          <t>26.07.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>03.04.</t>
+          <t>27.07.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>ABSCHLAG STROM Stadtwerke Rosenheim 72482709</t>
+          <t>AMAZON.DE MKTPLC EU UEHNUV</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>86,25-</t>
+          <t>69,50-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>06.04.</t>
+          <t>27.07.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>07.04.</t>
+          <t>28.07.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
+          <t>RECHNUNG VODAFONE GMBH 9256022</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>22,68-</t>
+          <t>37,80-</t>
         </is>
       </c>
     </row>
@@ -845,12 +845,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 08.04.2025</t>
+          <t>KONTOSTAND AM 01.08.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>134,64-</t>
+          <t>133,92-</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 18.04.2025</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 08.08.2024</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
